--- a/municipal/მოსახლეობა/მოსახლეობის სიმჭიდროვე/სიღნაღი.xlsx
+++ b/municipal/მოსახლეობა/მოსახლეობის სიმჭიდროვე/სიღნაღი.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\qarTuli\cx 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D81C37-DD43-4C9C-B719-307D1BF73506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11145" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19185" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="სიღნაღი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,70 +29,243 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>(1 იანვრის მდგომარეობით)</t>
+    <t xml:space="preserve">საქალაქო დასახლებაში მცხოვრები მოსახლეობის წილი (%) სიღნაღის მუნიციპალიტეტში </t>
   </si>
   <si>
-    <t>მოსახლეობის სიმჭიდროვე ერთ კვ.კმ-ზე სიღნაღის მუნიციპალიტეტში</t>
+    <t>(1 იანვრის მდგომარეობით)</t>
   </si>
   <si>
     <t>წელი</t>
   </si>
   <si>
-    <t>(კაცი)</t>
+    <t>საქალაქო დასახლებაში მცხოვრები მოსახლეობის წილი (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +278,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -114,38 +475,38 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -153,96 +514,369 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -291,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -326,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -500,156 +1134,305 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.4285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="11" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="17.4285714285714" style="2"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="17.4285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="2:4">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" ht="45.75" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="5" spans="1:2">
+      <c r="A5" s="10">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10.8695652173913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="13">
+        <v>10.8315600617516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10.2114403977042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="13">
+        <v>9.83062254627033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="13">
+        <v>9.88300706590988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="13">
+        <v>15.1088745259844</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="13">
+        <v>20.2088681737743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="13">
+        <v>21.1179484538737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="13">
+        <v>21.3577160899882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="13">
+        <v>21.4085946323885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="13">
+        <v>21.4028826355525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="13">
+        <v>21.3703786942353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="13">
+        <v>21.3495986058338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="13">
+        <v>21.309188152196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="13">
+        <v>21.3060959025602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="13">
+        <v>21.3007591276057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12">
         <v>2010</v>
       </c>
-      <c r="B6" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="B21" s="13">
+        <v>21.270913277053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12">
         <v>2011</v>
       </c>
-      <c r="B7" s="9">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="B22" s="13">
+        <v>21.2582159624413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12">
         <v>2012</v>
       </c>
-      <c r="B8" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="B23" s="13">
+        <v>21.168698538329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12">
         <v>2013</v>
       </c>
-      <c r="B9" s="9">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="B24" s="13">
+        <v>21.1362089639304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12">
         <v>2014</v>
       </c>
-      <c r="B10" s="9">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="B25" s="13">
+        <v>21.0725448264517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12">
         <v>2015</v>
       </c>
-      <c r="B11" s="9">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="B26" s="13">
+        <v>21.1046280334173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12">
         <v>2016</v>
       </c>
-      <c r="B12" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="B27" s="13">
+        <v>21.1821182118212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12">
         <v>2017</v>
       </c>
-      <c r="B13" s="9">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="B28" s="13">
+        <v>21.2635391167298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12">
         <v>2018</v>
       </c>
-      <c r="B14" s="9">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="B29" s="13">
+        <v>21.3632081819405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12">
         <v>2019</v>
       </c>
-      <c r="B15" s="9">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="B30" s="13">
+        <v>21.4426007450051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12">
         <v>2020</v>
       </c>
-      <c r="B16" s="9">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="B31" s="13">
+        <v>21.4749061113008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12">
         <v>2021</v>
       </c>
-      <c r="B17" s="9">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="B32" s="13">
+        <v>21.5340850670048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12">
         <v>2022</v>
       </c>
-      <c r="B18" s="10">
-        <v>22.973621103117505</v>
+      <c r="B33" s="13">
+        <v>21.5205288796103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="13">
+        <v>21.7400390080802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="15">
+        <v>21.8122931774977</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>